--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2127,28 +2127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1964.67941278579</v>
+        <v>2037.85310597641</v>
       </c>
       <c r="AB2" t="n">
-        <v>2688.161048111957</v>
+        <v>2788.280523330872</v>
       </c>
       <c r="AC2" t="n">
-        <v>2431.606730537879</v>
+        <v>2522.170943560467</v>
       </c>
       <c r="AD2" t="n">
-        <v>1964679.41278579</v>
+        <v>2037853.10597641</v>
       </c>
       <c r="AE2" t="n">
-        <v>2688161.048111957</v>
+        <v>2788280.523330872</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.15978119866788e-06</v>
+        <v>2.14589886498821e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.10208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2431606.730537879</v>
+        <v>2522170.943560467</v>
       </c>
     </row>
     <row r="3">
@@ -2233,28 +2233,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>640.0940793571501</v>
+        <v>688.7911409572912</v>
       </c>
       <c r="AB3" t="n">
-        <v>875.8049583342292</v>
+        <v>942.434426378276</v>
       </c>
       <c r="AC3" t="n">
-        <v>792.2193623107887</v>
+        <v>852.4898074397577</v>
       </c>
       <c r="AD3" t="n">
-        <v>640094.0793571501</v>
+        <v>688791.1409572912</v>
       </c>
       <c r="AE3" t="n">
-        <v>875804.9583342292</v>
+        <v>942434.4263782761</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.188849950290928e-06</v>
+        <v>4.049945480538755e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.942708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>792219.3623107887</v>
+        <v>852489.8074397576</v>
       </c>
     </row>
     <row r="4">
@@ -2339,28 +2339,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>468.5197654710336</v>
+        <v>505.1065673120682</v>
       </c>
       <c r="AB4" t="n">
-        <v>641.0494127507322</v>
+        <v>691.1090891254156</v>
       </c>
       <c r="AC4" t="n">
-        <v>579.8685565163032</v>
+        <v>625.150607636984</v>
       </c>
       <c r="AD4" t="n">
-        <v>468519.7654710336</v>
+        <v>505106.5673120682</v>
       </c>
       <c r="AE4" t="n">
-        <v>641049.4127507323</v>
+        <v>691109.0891254157</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.574860145470199e-06</v>
+        <v>4.76416540465936e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.902083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>579868.5565163032</v>
+        <v>625150.607636984</v>
       </c>
     </row>
     <row r="5">
@@ -2445,28 +2445,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>420.5153718784256</v>
+        <v>457.1021737194602</v>
       </c>
       <c r="AB5" t="n">
-        <v>575.3676836329478</v>
+        <v>625.4273600076313</v>
       </c>
       <c r="AC5" t="n">
-        <v>520.4553994406343</v>
+        <v>565.7374505613151</v>
       </c>
       <c r="AD5" t="n">
-        <v>420515.3718784256</v>
+        <v>457102.1737194601</v>
       </c>
       <c r="AE5" t="n">
-        <v>575367.6836329477</v>
+        <v>625427.3600076312</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.711407969615248e-06</v>
+        <v>5.016814629518349e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.604166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>520455.3994406343</v>
+        <v>565737.4505613151</v>
       </c>
     </row>
     <row r="6">
@@ -2551,28 +2551,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>422.0492326452668</v>
+        <v>458.6360344863014</v>
       </c>
       <c r="AB6" t="n">
-        <v>577.4663796033011</v>
+        <v>627.5260559779846</v>
       </c>
       <c r="AC6" t="n">
-        <v>522.3537988131153</v>
+        <v>567.6358499337961</v>
       </c>
       <c r="AD6" t="n">
-        <v>422049.2326452668</v>
+        <v>458636.0344863014</v>
       </c>
       <c r="AE6" t="n">
-        <v>577466.3796033011</v>
+        <v>627526.0559779846</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.710678547477721e-06</v>
+        <v>5.015465007590684e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.60625</v>
       </c>
       <c r="AH6" t="n">
-        <v>522353.7988131153</v>
+        <v>567635.8499337961</v>
       </c>
     </row>
   </sheetData>
@@ -2848,28 +2848,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1176.096599421611</v>
+        <v>1234.829908739177</v>
       </c>
       <c r="AB2" t="n">
-        <v>1609.187253048705</v>
+        <v>1689.548757987733</v>
       </c>
       <c r="AC2" t="n">
-        <v>1455.608680126231</v>
+        <v>1528.300595821958</v>
       </c>
       <c r="AD2" t="n">
-        <v>1176096.599421612</v>
+        <v>1234829.908739177</v>
       </c>
       <c r="AE2" t="n">
-        <v>1609187.253048705</v>
+        <v>1689548.757987733</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.53209313278791e-06</v>
+        <v>2.920405962701859e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.26041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1455608.680126231</v>
+        <v>1528300.595821958</v>
       </c>
     </row>
     <row r="3">
@@ -2954,28 +2954,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>489.8568681099629</v>
+        <v>525.0627531620941</v>
       </c>
       <c r="AB3" t="n">
-        <v>670.243777907848</v>
+        <v>718.4140230102049</v>
       </c>
       <c r="AC3" t="n">
-        <v>606.2766524373727</v>
+        <v>649.8495969545243</v>
       </c>
       <c r="AD3" t="n">
-        <v>489856.8681099629</v>
+        <v>525062.753162094</v>
       </c>
       <c r="AE3" t="n">
-        <v>670243.777907848</v>
+        <v>718414.0230102049</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.496442533744839e-06</v>
+        <v>4.758604751281929e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>606276.6524373727</v>
+        <v>649849.5969545243</v>
       </c>
     </row>
     <row r="4">
@@ -3060,28 +3060,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>396.2838886235905</v>
+        <v>431.5750250217421</v>
       </c>
       <c r="AB4" t="n">
-        <v>542.2130992260886</v>
+        <v>590.4999889810947</v>
       </c>
       <c r="AC4" t="n">
-        <v>490.4650420368143</v>
+        <v>534.143498804678</v>
       </c>
       <c r="AD4" t="n">
-        <v>396283.8886235905</v>
+        <v>431575.0250217421</v>
       </c>
       <c r="AE4" t="n">
-        <v>542213.0992260886</v>
+        <v>590499.9889810947</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.744396534648162e-06</v>
+        <v>5.231243344339371e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.728124999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>490465.0420368143</v>
+        <v>534143.498804678</v>
       </c>
     </row>
     <row r="5">
@@ -3166,28 +3166,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>397.2097452435091</v>
+        <v>432.5008816416608</v>
       </c>
       <c r="AB5" t="n">
-        <v>543.4798970993726</v>
+        <v>591.7667868543787</v>
       </c>
       <c r="AC5" t="n">
-        <v>491.610938499034</v>
+        <v>535.2893952668977</v>
       </c>
       <c r="AD5" t="n">
-        <v>397209.7452435091</v>
+        <v>432500.8816416608</v>
       </c>
       <c r="AE5" t="n">
-        <v>543479.8970993726</v>
+        <v>591766.7868543786</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.748320335027643e-06</v>
+        <v>5.238722713432185e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.719791666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>491610.938499034</v>
+        <v>535289.3952668977</v>
       </c>
     </row>
   </sheetData>
@@ -3463,28 +3463,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>372.8023742424857</v>
+        <v>414.5708033526776</v>
       </c>
       <c r="AB2" t="n">
-        <v>510.084655318559</v>
+        <v>567.2340627201651</v>
       </c>
       <c r="AC2" t="n">
-        <v>461.402891723265</v>
+        <v>513.0980398921589</v>
       </c>
       <c r="AD2" t="n">
-        <v>372802.3742424857</v>
+        <v>414570.8033526776</v>
       </c>
       <c r="AE2" t="n">
-        <v>510084.655318559</v>
+        <v>567234.0627201651</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.650946511352957e-06</v>
+        <v>5.645822308701187e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.616666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>461402.891723265</v>
+        <v>513098.0398921589</v>
       </c>
     </row>
     <row r="3">
@@ -3569,28 +3569,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>371.1297605963065</v>
+        <v>402.6054289244508</v>
       </c>
       <c r="AB3" t="n">
-        <v>507.7961115373504</v>
+        <v>550.862509552401</v>
       </c>
       <c r="AC3" t="n">
-        <v>459.3327633485437</v>
+        <v>498.2889647811071</v>
       </c>
       <c r="AD3" t="n">
-        <v>371129.7605963065</v>
+        <v>402605.4289244508</v>
       </c>
       <c r="AE3" t="n">
-        <v>507796.1115373505</v>
+        <v>550862.509552401</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.667112873002676e-06</v>
+        <v>5.68025242823081e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.577083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>459332.7633485437</v>
+        <v>498288.9647811071</v>
       </c>
     </row>
   </sheetData>
@@ -3866,28 +3866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>540.9561416251522</v>
+        <v>584.6727336093613</v>
       </c>
       <c r="AB2" t="n">
-        <v>740.1600582721742</v>
+        <v>799.975028064891</v>
       </c>
       <c r="AC2" t="n">
-        <v>669.5202211318433</v>
+        <v>723.6265341583807</v>
       </c>
       <c r="AD2" t="n">
-        <v>540956.1416251522</v>
+        <v>584672.7336093613</v>
       </c>
       <c r="AE2" t="n">
-        <v>740160.0582721742</v>
+        <v>799975.028064891</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.272834833177205e-06</v>
+        <v>4.614640502314631e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.383333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>669520.2211318433</v>
+        <v>723626.5341583807</v>
       </c>
     </row>
     <row r="3">
@@ -3972,28 +3972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>376.9978363168943</v>
+        <v>409.8279731094749</v>
       </c>
       <c r="AB3" t="n">
-        <v>515.8250716194887</v>
+        <v>560.7447131425122</v>
       </c>
       <c r="AC3" t="n">
-        <v>466.5954507491589</v>
+        <v>507.2280247303377</v>
       </c>
       <c r="AD3" t="n">
-        <v>376997.8363168943</v>
+        <v>409827.9731094749</v>
       </c>
       <c r="AE3" t="n">
-        <v>515825.0716194886</v>
+        <v>560744.7131425121</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.747442957542108e-06</v>
+        <v>5.578259081831139e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.108333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>466595.4507491589</v>
+        <v>507228.0247303377</v>
       </c>
     </row>
   </sheetData>
@@ -4269,28 +4269,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>383.5569901183292</v>
+        <v>413.6965445178606</v>
       </c>
       <c r="AB2" t="n">
-        <v>524.7995952200547</v>
+        <v>566.0378632127909</v>
       </c>
       <c r="AC2" t="n">
-        <v>474.7134584131098</v>
+        <v>512.016003986892</v>
       </c>
       <c r="AD2" t="n">
-        <v>383556.9901183292</v>
+        <v>413696.5445178606</v>
       </c>
       <c r="AE2" t="n">
-        <v>524799.5952200547</v>
+        <v>566037.8632127908</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.530062239850228e-06</v>
+        <v>5.633954426165533e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.201041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>474713.4584131098</v>
+        <v>512016.0039868919</v>
       </c>
     </row>
   </sheetData>
@@ -4566,28 +4566,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1322.064734352349</v>
+        <v>1393.242775463328</v>
       </c>
       <c r="AB2" t="n">
-        <v>1808.907294920565</v>
+        <v>1906.29623092216</v>
       </c>
       <c r="AC2" t="n">
-        <v>1636.267721510679</v>
+        <v>1724.361994146512</v>
       </c>
       <c r="AD2" t="n">
-        <v>1322064.734352349</v>
+        <v>1393242.775463328</v>
       </c>
       <c r="AE2" t="n">
-        <v>1808907.294920565</v>
+        <v>1906296.23092216</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.434277877904735e-06</v>
+        <v>2.711880502251721e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.86145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1636267.721510679</v>
+        <v>1724361.994146512</v>
       </c>
     </row>
     <row r="3">
@@ -4672,28 +4672,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>528.4739256975438</v>
+        <v>564.0203653342988</v>
       </c>
       <c r="AB3" t="n">
-        <v>723.0813397635184</v>
+        <v>771.7175466727654</v>
       </c>
       <c r="AC3" t="n">
-        <v>654.0714715475218</v>
+        <v>698.0659071306955</v>
       </c>
       <c r="AD3" t="n">
-        <v>528473.9256975438</v>
+        <v>564020.3653342988</v>
       </c>
       <c r="AE3" t="n">
-        <v>723081.3397635184</v>
+        <v>771717.5466727654</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.408210885299483e-06</v>
+        <v>4.553357648306279e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.46875</v>
       </c>
       <c r="AH3" t="n">
-        <v>654071.4715475218</v>
+        <v>698065.9071306954</v>
       </c>
     </row>
     <row r="4">
@@ -4778,28 +4778,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>402.0793622283164</v>
+        <v>437.7110532110919</v>
       </c>
       <c r="AB4" t="n">
-        <v>550.1427218903252</v>
+        <v>598.8955734522215</v>
       </c>
       <c r="AC4" t="n">
-        <v>497.6378726432715</v>
+        <v>541.7378204771572</v>
       </c>
       <c r="AD4" t="n">
-        <v>402079.3622283164</v>
+        <v>437711.0532110919</v>
       </c>
       <c r="AE4" t="n">
-        <v>550142.7218903252</v>
+        <v>598895.5734522215</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.735896269083557e-06</v>
+        <v>5.172933266703935e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.694791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>497637.8726432715</v>
+        <v>541737.8204771572</v>
       </c>
     </row>
     <row r="5">
@@ -4884,28 +4884,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>402.6763065922518</v>
+        <v>438.3079975750273</v>
       </c>
       <c r="AB5" t="n">
-        <v>550.9594875043882</v>
+        <v>599.7123390662846</v>
       </c>
       <c r="AC5" t="n">
-        <v>498.3766872934661</v>
+        <v>542.4766351273519</v>
       </c>
       <c r="AD5" t="n">
-        <v>402676.3065922518</v>
+        <v>438307.9975750273</v>
       </c>
       <c r="AE5" t="n">
-        <v>550959.4875043882</v>
+        <v>599712.3390662846</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.739485702771745e-06</v>
+        <v>5.179720037512491e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.686458333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>498376.6872934661</v>
+        <v>542476.6351273519</v>
       </c>
     </row>
   </sheetData>
@@ -5181,28 +5181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>393.3436358137627</v>
+        <v>432.5419917529578</v>
       </c>
       <c r="AB2" t="n">
-        <v>538.1901156168832</v>
+        <v>591.8230355223053</v>
       </c>
       <c r="AC2" t="n">
-        <v>486.8260063369784</v>
+        <v>535.340275640903</v>
       </c>
       <c r="AD2" t="n">
-        <v>393343.6358137627</v>
+        <v>432541.9917529578</v>
       </c>
       <c r="AE2" t="n">
-        <v>538190.1156168832</v>
+        <v>591823.0355223053</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.402894652262319e-06</v>
+        <v>5.508796379166531e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.759374999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>486826.0063369784</v>
+        <v>535340.2756409029</v>
       </c>
     </row>
   </sheetData>
@@ -5478,28 +5478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>801.9345621839217</v>
+        <v>858.8256746626349</v>
       </c>
       <c r="AB2" t="n">
-        <v>1097.242246836011</v>
+        <v>1175.083176788133</v>
       </c>
       <c r="AC2" t="n">
-        <v>992.5229867871475</v>
+        <v>1062.934887635069</v>
       </c>
       <c r="AD2" t="n">
-        <v>801934.5621839217</v>
+        <v>858825.674662635</v>
       </c>
       <c r="AE2" t="n">
-        <v>1097242.246836011</v>
+        <v>1175083.176788132</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.868207852574655e-06</v>
+        <v>3.661661572536765e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.669791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>992522.9867871475</v>
+        <v>1062934.887635069</v>
       </c>
     </row>
     <row r="3">
@@ -5584,28 +5584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>386.7157988387759</v>
+        <v>420.9016708387468</v>
       </c>
       <c r="AB3" t="n">
-        <v>529.1216166681753</v>
+        <v>575.8962349127667</v>
       </c>
       <c r="AC3" t="n">
-        <v>478.6229922002171</v>
+        <v>520.9335065281336</v>
       </c>
       <c r="AD3" t="n">
-        <v>386715.7988387759</v>
+        <v>420901.6708387468</v>
       </c>
       <c r="AE3" t="n">
-        <v>529121.6166681753</v>
+        <v>575896.2349127666</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.731641743989309e-06</v>
+        <v>5.353980067109937e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.929166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>478622.9922002171</v>
+        <v>520933.5065281336</v>
       </c>
     </row>
     <row r="4">
@@ -5690,28 +5690,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>380.3126208083309</v>
+        <v>414.4984928083018</v>
       </c>
       <c r="AB4" t="n">
-        <v>520.3605059986428</v>
+        <v>567.135124243234</v>
       </c>
       <c r="AC4" t="n">
-        <v>470.6980296366887</v>
+        <v>513.0085439646052</v>
       </c>
       <c r="AD4" t="n">
-        <v>380312.6208083309</v>
+        <v>414498.4928083018</v>
       </c>
       <c r="AE4" t="n">
-        <v>520360.5059986428</v>
+        <v>567135.1242432341</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.761184772868975e-06</v>
+        <v>5.411883995431367e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.865625000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>470698.0296366886</v>
+        <v>513008.5439646052</v>
       </c>
     </row>
   </sheetData>
@@ -5987,28 +5987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1031.746883677643</v>
+        <v>1089.976270007666</v>
       </c>
       <c r="AB2" t="n">
-        <v>1411.681603707799</v>
+        <v>1491.353618983757</v>
       </c>
       <c r="AC2" t="n">
-        <v>1276.9526927575</v>
+        <v>1349.020922715897</v>
       </c>
       <c r="AD2" t="n">
-        <v>1031746.883677643</v>
+        <v>1089976.270007666</v>
       </c>
       <c r="AE2" t="n">
-        <v>1411681.603707799</v>
+        <v>1491353.618983757</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.638816634129167e-06</v>
+        <v>3.150957792023999e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.683333333333332</v>
       </c>
       <c r="AH2" t="n">
-        <v>1276952.6927575</v>
+        <v>1349020.922715897</v>
       </c>
     </row>
     <row r="3">
@@ -6093,28 +6093,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>454.2987585979118</v>
+        <v>489.151139049905</v>
       </c>
       <c r="AB3" t="n">
-        <v>621.5916037603824</v>
+        <v>669.2781682733082</v>
       </c>
       <c r="AC3" t="n">
-        <v>562.2677735067858</v>
+        <v>605.4031992311117</v>
       </c>
       <c r="AD3" t="n">
-        <v>454298.7585979118</v>
+        <v>489151.139049905</v>
       </c>
       <c r="AE3" t="n">
-        <v>621591.6037603824</v>
+        <v>669278.1682733082</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.583684233354703e-06</v>
+        <v>4.967657636416751e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.142708333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>562267.7735067859</v>
+        <v>605403.1992311117</v>
       </c>
     </row>
     <row r="4">
@@ -6199,28 +6199,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>390.6291613923884</v>
+        <v>425.5667931904021</v>
       </c>
       <c r="AB4" t="n">
-        <v>534.476051959399</v>
+        <v>582.2792611249741</v>
       </c>
       <c r="AC4" t="n">
-        <v>483.4664077022435</v>
+        <v>526.7073456772815</v>
       </c>
       <c r="AD4" t="n">
-        <v>390629.1613923883</v>
+        <v>425566.7931904021</v>
       </c>
       <c r="AE4" t="n">
-        <v>534476.051959399</v>
+        <v>582279.2611249741</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.752791462496971e-06</v>
+        <v>5.292800626948186e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.764583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>483466.4077022435</v>
+        <v>526707.3456772815</v>
       </c>
     </row>
   </sheetData>
@@ -6496,28 +6496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1718.937930171413</v>
+        <v>1791.409811461609</v>
       </c>
       <c r="AB2" t="n">
-        <v>2351.926710249897</v>
+        <v>2451.085935464897</v>
       </c>
       <c r="AC2" t="n">
-        <v>2127.462125973516</v>
+        <v>2217.157733904843</v>
       </c>
       <c r="AD2" t="n">
-        <v>1718937.930171412</v>
+        <v>1791409.811461609</v>
       </c>
       <c r="AE2" t="n">
-        <v>2351926.710249897</v>
+        <v>2451085.935464897</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.2469893665838e-06</v>
+        <v>2.323046610261105e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.28333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2127462.125973516</v>
+        <v>2217157.733904843</v>
       </c>
     </row>
     <row r="3">
@@ -6602,28 +6602,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>601.1886576423896</v>
+        <v>649.4747385452961</v>
       </c>
       <c r="AB3" t="n">
-        <v>822.5728439580244</v>
+        <v>888.6399900809262</v>
       </c>
       <c r="AC3" t="n">
-        <v>744.067646218907</v>
+        <v>803.8294366416612</v>
       </c>
       <c r="AD3" t="n">
-        <v>601188.6576423895</v>
+        <v>649474.7385452961</v>
       </c>
       <c r="AE3" t="n">
-        <v>822572.8439580244</v>
+        <v>888639.9900809262</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.259727075034582e-06</v>
+        <v>4.209700148571037e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.778124999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>744067.6462189071</v>
+        <v>803829.4366416612</v>
       </c>
     </row>
     <row r="4">
@@ -6708,28 +6708,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>440.9723734051723</v>
+        <v>477.250939723281</v>
       </c>
       <c r="AB4" t="n">
-        <v>603.3578556210548</v>
+        <v>652.9957905548795</v>
       </c>
       <c r="AC4" t="n">
-        <v>545.7742286986495</v>
+        <v>590.6747887896692</v>
       </c>
       <c r="AD4" t="n">
-        <v>440972.3734051723</v>
+        <v>477250.939723281</v>
       </c>
       <c r="AE4" t="n">
-        <v>603357.8556210548</v>
+        <v>652995.7905548795</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.641323467285168e-06</v>
+        <v>4.920585284612024e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.798958333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>545774.2286986494</v>
+        <v>590674.7887896692</v>
       </c>
     </row>
     <row r="5">
@@ -6814,28 +6814,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>413.8002363343949</v>
+        <v>450.0788026525036</v>
       </c>
       <c r="AB5" t="n">
-        <v>566.179738930733</v>
+        <v>615.8176738645578</v>
       </c>
       <c r="AC5" t="n">
-        <v>512.1443392854376</v>
+        <v>557.0448993764574</v>
       </c>
       <c r="AD5" t="n">
-        <v>413800.2363343949</v>
+        <v>450078.8026525036</v>
       </c>
       <c r="AE5" t="n">
-        <v>566179.7389307331</v>
+        <v>615817.6738645579</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.721466062189433e-06</v>
+        <v>5.069884860389418e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.628125</v>
       </c>
       <c r="AH5" t="n">
-        <v>512144.3392854376</v>
+        <v>557044.8993764573</v>
       </c>
     </row>
   </sheetData>
@@ -7111,28 +7111,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>617.0766666391936</v>
+        <v>661.55860059563</v>
       </c>
       <c r="AB2" t="n">
-        <v>844.3115187969396</v>
+        <v>905.1736632405621</v>
       </c>
       <c r="AC2" t="n">
-        <v>763.7316124416182</v>
+        <v>818.7851592400975</v>
       </c>
       <c r="AD2" t="n">
-        <v>617076.6666391937</v>
+        <v>661558.60059563</v>
       </c>
       <c r="AE2" t="n">
-        <v>844311.5187969396</v>
+        <v>905173.6632405621</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.126824622207706e-06</v>
+        <v>4.26321432968842e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.791666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>763731.6124416181</v>
+        <v>818785.1592400975</v>
       </c>
     </row>
     <row r="3">
@@ -7217,28 +7217,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>381.6448350076366</v>
+        <v>414.9210341289432</v>
       </c>
       <c r="AB3" t="n">
-        <v>522.1833002392754</v>
+        <v>567.713263919343</v>
       </c>
       <c r="AC3" t="n">
-        <v>472.346858953303</v>
+        <v>513.5315068014503</v>
       </c>
       <c r="AD3" t="n">
-        <v>381644.8350076366</v>
+        <v>414921.0341289432</v>
       </c>
       <c r="AE3" t="n">
-        <v>522183.3002392754</v>
+        <v>567713.263919343</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.753147349235288e-06</v>
+        <v>5.518676579369273e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.01875</v>
       </c>
       <c r="AH3" t="n">
-        <v>472346.858953303</v>
+        <v>513531.5068014503</v>
       </c>
     </row>
   </sheetData>
@@ -7514,28 +7514,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>399.8921568676581</v>
+        <v>442.3878120405747</v>
       </c>
       <c r="AB2" t="n">
-        <v>547.1500910231821</v>
+        <v>605.2945212067577</v>
       </c>
       <c r="AC2" t="n">
-        <v>494.9308542659047</v>
+        <v>547.5260616389802</v>
       </c>
       <c r="AD2" t="n">
-        <v>399892.1568676581</v>
+        <v>442387.8120405747</v>
       </c>
       <c r="AE2" t="n">
-        <v>547150.091023182</v>
+        <v>605294.5212067578</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.592116845047603e-06</v>
+        <v>5.42287054542753e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.659375</v>
       </c>
       <c r="AH2" t="n">
-        <v>494930.8542659047</v>
+        <v>547526.0616389802</v>
       </c>
     </row>
     <row r="3">
@@ -7620,28 +7620,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>371.8401752959369</v>
+        <v>403.6906709705324</v>
       </c>
       <c r="AB3" t="n">
-        <v>508.7681322706693</v>
+        <v>552.3473855973499</v>
       </c>
       <c r="AC3" t="n">
-        <v>460.2120157873142</v>
+        <v>499.6321263403626</v>
       </c>
       <c r="AD3" t="n">
-        <v>371840.1752959369</v>
+        <v>403690.6709705324</v>
       </c>
       <c r="AE3" t="n">
-        <v>508768.1322706693</v>
+        <v>552347.3855973498</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.706294604045033e-06</v>
+        <v>5.661737557689361e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.378125</v>
       </c>
       <c r="AH3" t="n">
-        <v>460212.0157873142</v>
+        <v>499632.1263403626</v>
       </c>
     </row>
   </sheetData>
@@ -12946,28 +12946,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>369.6255733452094</v>
+        <v>410.6017733022138</v>
       </c>
       <c r="AB2" t="n">
-        <v>505.7380161803413</v>
+        <v>561.8034607038727</v>
       </c>
       <c r="AC2" t="n">
-        <v>457.4710897238525</v>
+        <v>508.1857269104037</v>
       </c>
       <c r="AD2" t="n">
-        <v>369625.5733452094</v>
+        <v>410601.7733022138</v>
       </c>
       <c r="AE2" t="n">
-        <v>505738.0161803412</v>
+        <v>561803.4607038727</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.611484245330919e-06</v>
+        <v>5.67699009460281e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.837499999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>457471.0897238525</v>
+        <v>508185.7269104037</v>
       </c>
     </row>
   </sheetData>
@@ -13243,28 +13243,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>424.6832439709801</v>
+        <v>472.1597898216114</v>
       </c>
       <c r="AB2" t="n">
-        <v>581.0703501035205</v>
+        <v>646.0298546537334</v>
       </c>
       <c r="AC2" t="n">
-        <v>525.6138114269982</v>
+        <v>584.373672034176</v>
       </c>
       <c r="AD2" t="n">
-        <v>424683.2439709801</v>
+        <v>472159.7898216114</v>
       </c>
       <c r="AE2" t="n">
-        <v>581070.3501035204</v>
+        <v>646029.8546537334</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.196668814641961e-06</v>
+        <v>5.224836005556156e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.725</v>
       </c>
       <c r="AH2" t="n">
-        <v>525613.8114269981</v>
+        <v>584373.6720341761</v>
       </c>
     </row>
   </sheetData>
@@ -13540,28 +13540,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>915.4556203699924</v>
+        <v>961.5487350831579</v>
       </c>
       <c r="AB2" t="n">
-        <v>1252.56676684182</v>
+        <v>1315.633399877078</v>
       </c>
       <c r="AC2" t="n">
-        <v>1133.023552602935</v>
+        <v>1190.071194695883</v>
       </c>
       <c r="AD2" t="n">
-        <v>915455.6203699925</v>
+        <v>961548.7350831579</v>
       </c>
       <c r="AE2" t="n">
-        <v>1252566.76684182</v>
+        <v>1315633.399877078</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.750883713202398e-06</v>
+        <v>3.397726755800843e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.154166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1133023.552602935</v>
+        <v>1190071.194695883</v>
       </c>
     </row>
     <row r="3">
@@ -13646,28 +13646,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>421.9829322242723</v>
+        <v>456.4674497817124</v>
       </c>
       <c r="AB3" t="n">
-        <v>577.3756644423281</v>
+        <v>624.5589027139608</v>
       </c>
       <c r="AC3" t="n">
-        <v>522.2717413797861</v>
+        <v>564.951877612865</v>
       </c>
       <c r="AD3" t="n">
-        <v>421982.9322242723</v>
+        <v>456467.4497817124</v>
       </c>
       <c r="AE3" t="n">
-        <v>577375.6644423282</v>
+        <v>624558.9027139609</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.668562812028226e-06</v>
+        <v>5.178554804978823e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.006249999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>522271.7413797862</v>
+        <v>564951.8776128651</v>
       </c>
     </row>
     <row r="4">
@@ -13752,28 +13752,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>385.4191645450769</v>
+        <v>419.9889334485375</v>
       </c>
       <c r="AB4" t="n">
-        <v>527.3475044240685</v>
+        <v>574.6473873483505</v>
       </c>
       <c r="AC4" t="n">
-        <v>477.0181987387056</v>
+        <v>519.8038472224968</v>
       </c>
       <c r="AD4" t="n">
-        <v>385419.1645450769</v>
+        <v>419988.9334485375</v>
       </c>
       <c r="AE4" t="n">
-        <v>527347.5044240685</v>
+        <v>574647.3873483506</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.757037909584372e-06</v>
+        <v>5.350247650095748e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.813541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>477018.1987387055</v>
+        <v>519803.8472224968</v>
       </c>
     </row>
   </sheetData>
@@ -14049,28 +14049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1504.614040504784</v>
+        <v>1576.535024729531</v>
       </c>
       <c r="AB2" t="n">
-        <v>2058.679309105326</v>
+        <v>2157.084772651514</v>
       </c>
       <c r="AC2" t="n">
-        <v>1862.201845218871</v>
+        <v>1951.215629437147</v>
       </c>
       <c r="AD2" t="n">
-        <v>1504614.040504784</v>
+        <v>1576535.024729531</v>
       </c>
       <c r="AE2" t="n">
-        <v>2058679.309105326</v>
+        <v>2157084.772651515</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.339356990824039e-06</v>
+        <v>2.513159049766239e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.53125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1862201.845218871</v>
+        <v>1951215.629437147</v>
       </c>
     </row>
     <row r="3">
@@ -14155,28 +14155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>563.5669701603637</v>
+        <v>611.4289521222901</v>
       </c>
       <c r="AB3" t="n">
-        <v>771.0971913934043</v>
+        <v>836.5840666353322</v>
       </c>
       <c r="AC3" t="n">
-        <v>697.5047576885222</v>
+        <v>756.7416574687671</v>
       </c>
       <c r="AD3" t="n">
-        <v>563566.9701603637</v>
+        <v>611428.95212229</v>
       </c>
       <c r="AE3" t="n">
-        <v>771097.1913934043</v>
+        <v>836584.0666353322</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.333680912053531e-06</v>
+        <v>4.378900728912967e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.618749999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>697504.7576885222</v>
+        <v>756741.6574687671</v>
       </c>
     </row>
     <row r="4">
@@ -14261,28 +14261,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>417.0545625183549</v>
+        <v>453.0150546307283</v>
       </c>
       <c r="AB4" t="n">
-        <v>570.6324515863657</v>
+        <v>619.8351833594598</v>
       </c>
       <c r="AC4" t="n">
-        <v>516.1720912946381</v>
+        <v>560.678983403776</v>
       </c>
       <c r="AD4" t="n">
-        <v>417054.5625183549</v>
+        <v>453015.0546307283</v>
       </c>
       <c r="AE4" t="n">
-        <v>570632.4515863657</v>
+        <v>619835.1833594599</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.69976885740331e-06</v>
+        <v>5.0658253047873e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.720833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>516172.0912946381</v>
+        <v>560678.983403776</v>
       </c>
     </row>
     <row r="5">
@@ -14367,28 +14367,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>408.6414036722147</v>
+        <v>444.6018957845881</v>
       </c>
       <c r="AB5" t="n">
-        <v>559.1211964907036</v>
+        <v>608.3239282637978</v>
       </c>
       <c r="AC5" t="n">
-        <v>505.759454229158</v>
+        <v>550.2663463382959</v>
       </c>
       <c r="AD5" t="n">
-        <v>408641.4036722147</v>
+        <v>444601.8957845881</v>
       </c>
       <c r="AE5" t="n">
-        <v>559121.1964907036</v>
+        <v>608323.9282637978</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.730609802171537e-06</v>
+        <v>5.123695013892954e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.65625</v>
       </c>
       <c r="AH5" t="n">
-        <v>505759.454229158</v>
+        <v>550266.3463382958</v>
       </c>
     </row>
   </sheetData>
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>492.716400601865</v>
+        <v>547.5922175266937</v>
       </c>
       <c r="AB2" t="n">
-        <v>674.1563164169388</v>
+        <v>749.23983008367</v>
       </c>
       <c r="AC2" t="n">
-        <v>609.8157837624379</v>
+        <v>677.7334322651897</v>
       </c>
       <c r="AD2" t="n">
-        <v>492716.400601865</v>
+        <v>547592.2175266937</v>
       </c>
       <c r="AE2" t="n">
-        <v>674156.3164169388</v>
+        <v>749239.83008367</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.839691170208918e-06</v>
+        <v>4.600928003391186e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.7875</v>
       </c>
       <c r="AH2" t="n">
-        <v>609815.783762438</v>
+        <v>677733.4322651897</v>
       </c>
     </row>
   </sheetData>
@@ -14961,28 +14961,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>458.5096267999828</v>
+        <v>501.6800738427829</v>
       </c>
       <c r="AB2" t="n">
-        <v>627.35309940485</v>
+        <v>686.4208095945164</v>
       </c>
       <c r="AC2" t="n">
-        <v>567.4794000932554</v>
+        <v>620.909770924472</v>
       </c>
       <c r="AD2" t="n">
-        <v>458509.6267999828</v>
+        <v>501680.0738427829</v>
       </c>
       <c r="AE2" t="n">
-        <v>627353.09940485</v>
+        <v>686420.8095945164</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.437411988806407e-06</v>
+        <v>5.019322189170373e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.979166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>567479.4000932554</v>
+        <v>620909.770924472</v>
       </c>
     </row>
     <row r="3">
@@ -15067,28 +15067,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>374.4656680071057</v>
+        <v>406.8222575841139</v>
       </c>
       <c r="AB3" t="n">
-        <v>512.3604472266541</v>
+        <v>556.6321605579029</v>
       </c>
       <c r="AC3" t="n">
-        <v>463.4614852457455</v>
+        <v>503.5079683923998</v>
       </c>
       <c r="AD3" t="n">
-        <v>374465.6680071057</v>
+        <v>406822.2575841139</v>
       </c>
       <c r="AE3" t="n">
-        <v>512360.4472266541</v>
+        <v>556632.1605579029</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.73069833021712e-06</v>
+        <v>5.623281900529745e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.229166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>463461.4852457455</v>
+        <v>503507.9683923998</v>
       </c>
     </row>
   </sheetData>
@@ -15364,28 +15364,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>711.5359360645019</v>
+        <v>756.4959140335754</v>
       </c>
       <c r="AB2" t="n">
-        <v>973.5548584735033</v>
+        <v>1035.07108382503</v>
       </c>
       <c r="AC2" t="n">
-        <v>880.640149173617</v>
+        <v>936.2853523161585</v>
       </c>
       <c r="AD2" t="n">
-        <v>711535.9360645019</v>
+        <v>756495.9140335754</v>
       </c>
       <c r="AE2" t="n">
-        <v>973554.8584735033</v>
+        <v>1035071.08382503</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.991853774727436e-06</v>
+        <v>3.946229051484647e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.221875000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>880640.149173617</v>
+        <v>936285.3523161586</v>
       </c>
     </row>
     <row r="3">
@@ -15470,28 +15470,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>375.3989765930207</v>
+        <v>420.2735241989716</v>
       </c>
       <c r="AB3" t="n">
-        <v>513.6374412085719</v>
+        <v>575.0367769683522</v>
       </c>
       <c r="AC3" t="n">
-        <v>464.6166047143013</v>
+        <v>520.1560740436773</v>
       </c>
       <c r="AD3" t="n">
-        <v>375398.9765930207</v>
+        <v>420273.5241989716</v>
       </c>
       <c r="AE3" t="n">
-        <v>513637.4412085718</v>
+        <v>575036.7769683523</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.754226412950922e-06</v>
+        <v>5.456629609590975e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.945833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>464616.6047143014</v>
+        <v>520156.0740436773</v>
       </c>
     </row>
     <row r="4">
@@ -15576,28 +15576,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>376.6147516882668</v>
+        <v>410.3986736745874</v>
       </c>
       <c r="AB4" t="n">
-        <v>515.3009183300993</v>
+        <v>561.5255708332311</v>
       </c>
       <c r="AC4" t="n">
-        <v>466.121321914055</v>
+        <v>507.9343584589952</v>
       </c>
       <c r="AD4" t="n">
-        <v>376614.7516882668</v>
+        <v>410398.6736745874</v>
       </c>
       <c r="AE4" t="n">
-        <v>515300.9183300993</v>
+        <v>561525.5708332311</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.758471424547546e-06</v>
+        <v>5.465039759120541e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.9375</v>
       </c>
       <c r="AH4" t="n">
-        <v>466121.321914055</v>
+        <v>507934.3584589952</v>
       </c>
     </row>
   </sheetData>
